--- a/Brief1.xlsx
+++ b/Brief1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -132,13 +133,109 @@
   </si>
   <si>
     <t>Se planering för 1-2mån framåt</t>
+  </si>
+  <si>
+    <t>Backlog items</t>
+  </si>
+  <si>
+    <t>Item number</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Estimated time</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t>Köra med en test implementering av Identity med Google</t>
+  </si>
+  <si>
+    <t>Test Identity</t>
+  </si>
+  <si>
+    <t>Implementera Identity</t>
+  </si>
+  <si>
+    <t>Implementera Identity, få igång alla funktioner</t>
+  </si>
+  <si>
+    <t>Modulera Databas</t>
+  </si>
+  <si>
+    <t>Finslipa, modulera slutgiltlig databas</t>
+  </si>
+  <si>
+    <t>Implementera rest databas</t>
+  </si>
+  <si>
+    <t>Implementering av resterande databas med entity framework code first</t>
+  </si>
+  <si>
+    <t>Layout login-sida</t>
+  </si>
+  <si>
+    <t>Styla login sidan med Material Design</t>
+  </si>
+  <si>
+    <t>Implementera wep-api</t>
+  </si>
+  <si>
+    <t>Implementer api/service för alla klasser/tabeller, och dess respektive angular</t>
+  </si>
+  <si>
+    <t>Implementering av MaterDes</t>
+  </si>
+  <si>
+    <t>Implementer resterande design, Material Design</t>
+  </si>
+  <si>
+    <t>Skriva testcases</t>
+  </si>
+  <si>
+    <t>Skriva testcases för sidan</t>
+  </si>
+  <si>
+    <t>Köra igenom testcases</t>
+  </si>
+  <si>
+    <t>Köra igenom alla testcases för sidan</t>
+  </si>
+  <si>
+    <t>Fixa till eventuella fel</t>
+  </si>
+  <si>
+    <t>Rätta till alla eventuella fel som vi har upptäckt</t>
+  </si>
+  <si>
+    <t>Implenetera loggning av fel</t>
+  </si>
+  <si>
+    <t>Implementera funktion som loggar alla fel och exceptions</t>
+  </si>
+  <si>
+    <t>Implementera div funktioner</t>
+  </si>
+  <si>
+    <t>Implementering av diverse funktioner, features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +263,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +369,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB17ED8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,7 +438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,8 +450,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -358,13 +476,16 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="40% - Dekorfärg1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Dekorfärg2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - Dekorfärg3" xfId="6" builtinId="39"/>
     <cellStyle name="40% - Dekorfärg4" xfId="8" builtinId="43"/>
     <cellStyle name="40% - Dekorfärg6" xfId="10" builtinId="51"/>
+    <cellStyle name="Bra" xfId="11" builtinId="26"/>
     <cellStyle name="Dekorfärg1" xfId="1" builtinId="29"/>
     <cellStyle name="Dekorfärg2" xfId="3" builtinId="33"/>
     <cellStyle name="Dekorfärg3" xfId="5" builtinId="37"/>
@@ -794,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,4 +1095,295 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="71.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Brief1.xlsx
+++ b/Brief1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Implementera Identity</t>
   </si>
   <si>
-    <t>Implementera Identity, få igång alla funktioner</t>
-  </si>
-  <si>
     <t>Modulera Databas</t>
   </si>
   <si>
@@ -183,52 +180,22 @@
     <t>Implementering av resterande databas med entity framework code first</t>
   </si>
   <si>
-    <t>Layout login-sida</t>
-  </si>
-  <si>
-    <t>Styla login sidan med Material Design</t>
-  </si>
-  <si>
-    <t>Implementera wep-api</t>
-  </si>
-  <si>
-    <t>Implementer api/service för alla klasser/tabeller, och dess respektive angular</t>
-  </si>
-  <si>
-    <t>Implementering av MaterDes</t>
-  </si>
-  <si>
-    <t>Implementer resterande design, Material Design</t>
-  </si>
-  <si>
-    <t>Skriva testcases</t>
-  </si>
-  <si>
-    <t>Skriva testcases för sidan</t>
-  </si>
-  <si>
-    <t>Köra igenom testcases</t>
-  </si>
-  <si>
-    <t>Köra igenom alla testcases för sidan</t>
-  </si>
-  <si>
-    <t>Fixa till eventuella fel</t>
-  </si>
-  <si>
-    <t>Rätta till alla eventuella fel som vi har upptäckt</t>
-  </si>
-  <si>
-    <t>Implenetera loggning av fel</t>
-  </si>
-  <si>
-    <t>Implementera funktion som loggar alla fel och exceptions</t>
-  </si>
-  <si>
-    <t>Implementera div funktioner</t>
-  </si>
-  <si>
-    <t>Implementering av diverse funktioner, features</t>
+    <t>Lägga till alla dess respektive funktioner</t>
+  </si>
+  <si>
+    <t>Implementera ToDo</t>
+  </si>
+  <si>
+    <t>Implementera Identity, få igång alla funktioner, plus layout</t>
+  </si>
+  <si>
+    <t>Layout för login-sida</t>
+  </si>
+  <si>
+    <t>Implementera all layout för login sida och dess respektive partial views</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1080,8 @@
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1179,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1187,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1199,15 +1167,15 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1219,18 +1187,18 @@
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1239,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1247,10 +1215,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1259,7 +1227,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,119 +1235,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Brief1.xlsx
+++ b/Brief1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Cascade delete contact</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -1144,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -1164,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1236,6 +1245,11 @@
       </c>
       <c r="C10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Brief1.xlsx
+++ b/Brief1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -204,7 +204,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Skapa endast en sida för access denied och pending approval</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1250,6 +1250,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Brief1.xlsx
+++ b/Brief1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="databasskis" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Åtgärder" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -144,9 +145,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Estimated time</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ToDo</t>
-  </si>
-  <si>
     <t>Köra med en test implementering av Identity med Google</t>
   </si>
   <si>
@@ -168,24 +163,6 @@
     <t>Implementera Identity</t>
   </si>
   <si>
-    <t>Modulera Databas</t>
-  </si>
-  <si>
-    <t>Finslipa, modulera slutgiltlig databas</t>
-  </si>
-  <si>
-    <t>Implementera rest databas</t>
-  </si>
-  <si>
-    <t>Implementering av resterande databas med entity framework code first</t>
-  </si>
-  <si>
-    <t>Lägga till alla dess respektive funktioner</t>
-  </si>
-  <si>
-    <t>Implementera ToDo</t>
-  </si>
-  <si>
     <t>Implementera Identity, få igång alla funktioner, plus layout</t>
   </si>
   <si>
@@ -195,23 +172,164 @@
     <t>Implementera all layout för login sida och dess respektive partial views</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Cascade delete contact</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Skapa endast en sida för access denied och pending approval</t>
+    <t>Funktioner och fel som behöver åtgärdas/implementeras</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Cascade delete på contact</t>
+  </si>
+  <si>
+    <t>När en user tas bort ska även kontaktinformationen tas bort</t>
+  </si>
+  <si>
+    <t>Sida för access denied/ pending approval</t>
+  </si>
+  <si>
+    <t>Ska skapas/utformas en gemensam sida för när en användare inte har behörighet eller ska vänta på att få roller tilldelade till sig</t>
+  </si>
+  <si>
+    <t>Konfigurerar tabell på admin och roledamin</t>
+  </si>
+  <si>
+    <t>Raden där kolumnernas namn står har inte grå hela längan.</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>ska vara responsive</t>
+  </si>
+  <si>
+    <t>Loggut funktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design och lägga till befintliga länkar </t>
+  </si>
+  <si>
+    <t>Funka i alla läge.</t>
+  </si>
+  <si>
+    <t>Kunna logga ut från sidan</t>
+  </si>
+  <si>
+    <t>Estimated time in hours</t>
+  </si>
+  <si>
+    <t>Skapa sidenav/huvudmeny</t>
+  </si>
+  <si>
+    <t>Lägg till Todo</t>
+  </si>
+  <si>
+    <t>Databas</t>
+  </si>
+  <si>
+    <t>Web.Api</t>
+  </si>
+  <si>
+    <t>AngularJS funktion</t>
+  </si>
+  <si>
+    <t>Ta bort Todo</t>
+  </si>
+  <si>
+    <t>Editera Toto</t>
+  </si>
+  <si>
+    <t>Se alla sina egna Todo</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Skapa tabellen för Todo och respektive relationer</t>
+  </si>
+  <si>
+    <t>Implementera AngularJS funktioner</t>
+  </si>
+  <si>
+    <t>Skapa layout för vyn</t>
+  </si>
+  <si>
+    <t>Skapa web.api för se alla sina egna Todo</t>
+  </si>
+  <si>
+    <t>Skapa web.api för editera en Todo</t>
+  </si>
+  <si>
+    <t>Skapa web.api för att radera Todo</t>
+  </si>
+  <si>
+    <t>Skapa web.api för lägg till Todo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +372,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +478,38 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -413,8 +569,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -427,8 +690,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -453,9 +721,67 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="12" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="17">
+    <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
+    <cellStyle name="20% - Dekorfärg2" xfId="13" builtinId="34"/>
+    <cellStyle name="20% - Dekorfärg3" xfId="14" builtinId="38"/>
+    <cellStyle name="20% - Dekorfärg4" xfId="15" builtinId="42"/>
+    <cellStyle name="20% - Dekorfärg6" xfId="16" builtinId="50"/>
     <cellStyle name="40% - Dekorfärg1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Dekorfärg2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - Dekorfärg3" xfId="6" builtinId="39"/>
@@ -1075,21 +1401,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1098,167 +1424,604 @@
         <v>36</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="49">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="49">
+        <v>16</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="49">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="49">
+        <v>32</v>
+      </c>
+      <c r="E5" s="49">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="49">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="49">
+        <v>16</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="50">
+        <v>16</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="67">
+        <v>5</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="67">
+        <v>5</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="67">
+        <v>6</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="52">
+        <v>5</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="52">
+        <v>56</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="68">
+        <v>16</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="68">
+        <v>8</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="68">
+        <v>16</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="68">
+        <v>16</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="54">
+        <v>6</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="54">
+        <v>22</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="63">
+        <v>4</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="63">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="63">
+        <v>8</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D20" s="63">
+        <v>8</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="56">
+        <v>7</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="56">
+        <v>22</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="64">
+        <v>4</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="64">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="64">
+        <v>8</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6">
+      <c r="D25" s="64">
+        <v>8</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="58">
+        <v>8</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="58">
+        <v>26</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="65">
+        <v>8</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="65">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="65">
+        <v>8</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D30" s="66">
+        <v>8</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="74" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>